--- a/Lab/02/Python/data.xlsx
+++ b/Lab/02/Python/data.xlsx
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +449,56 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A366AF41</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0736328960300926</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>яблоко</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A366AF41</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0736328960300926</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>банан</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
